--- a/catupiry.xlsx
+++ b/catupiry.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natiq\Documents\INSPER\2° SEMESTRE\Ciência dos Dados\PROJETO 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natiq\Documents\INSPER\2° SEMESTRE\Ciência dos Dados\PROJETO 1\Projeto1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93C60D3-330C-4CAD-B1FD-36D81A62F60C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A28F09-9357-4BD5-A523-075573A71A18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="879">
   <si>
     <t>Treinamento</t>
   </si>
@@ -3240,12 +3240,24 @@
   <si>
     <t>minha mãe ontem pedindo pizza de catupiry kkkkkkkkkkkkkkkkkkkkkkk igual vei https://t.co/7cmvnj8zox</t>
   </si>
+  <si>
+    <t>0: irrelevante</t>
+  </si>
+  <si>
+    <t>1: neutro</t>
+  </si>
+  <si>
+    <t>2: relevante</t>
+  </si>
+  <si>
+    <t>3: muito relevante</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3255,6 +3267,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3324,7 +3344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3338,6 +3358,8 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3676,19 +3698,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C669"/>
+  <dimension ref="A1:G669"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="255.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3696,39 +3719,51 @@
         <v>839</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G2" s="9" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G3" s="9" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G4" s="9" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G5" s="9" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -3736,7 +3771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -3744,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -3752,7 +3787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -3760,7 +3795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -3768,7 +3803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -3776,7 +3811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -3784,7 +3819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -3792,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -3800,7 +3835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -3808,7 +3843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -9087,19 +9122,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B336"/>
+  <dimension ref="A1:I336"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="255.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>727</v>
       </c>
@@ -9107,47 +9143,60 @@
         <v>839</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>728</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G2" s="9" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>729</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="9" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>730</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="9" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>731</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="9" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>732</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>733</v>
       </c>
@@ -9155,7 +9204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>734</v>
       </c>
@@ -9163,7 +9212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>735</v>
       </c>
@@ -9171,7 +9220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>736</v>
       </c>
@@ -9179,7 +9228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>737</v>
       </c>
@@ -9187,7 +9236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>738</v>
       </c>
@@ -9195,7 +9244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>739</v>
       </c>
@@ -9203,7 +9252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>740</v>
       </c>
@@ -9211,7 +9260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>741</v>
       </c>
@@ -9219,7 +9268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>742</v>
       </c>
@@ -11803,6 +11852,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010004A9DFCD68768843B772937BA4D9E448" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="46425e115ba7e99edf2604e1eacb9dff">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6a7e632-1e49-430b-b1e0-197917d309ea" xmlns:ns4="56bcf414-d7d9-423c-970c-c63c17a3ff38" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="900f42d01f1ca867cd18d0b1f83ffb05" ns3:_="" ns4:_="">
     <xsd:import namespace="f6a7e632-1e49-430b-b1e0-197917d309ea"/>
@@ -12013,12 +12068,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63C5915E-1106-4260-BC20-7D088B5C259B}">
   <ds:schemaRefs>
@@ -12028,6 +12077,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E12A45E7-CFB4-424B-96A6-AB830DA7C328}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="56bcf414-d7d9-423c-970c-c63c17a3ff38"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f6a7e632-1e49-430b-b1e0-197917d309ea"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36D382AA-1077-4701-BC0B-A5E5B6585F4F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12044,21 +12110,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E12A45E7-CFB4-424B-96A6-AB830DA7C328}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="56bcf414-d7d9-423c-970c-c63c17a3ff38"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f6a7e632-1e49-430b-b1e0-197917d309ea"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/catupiry.xlsx
+++ b/catupiry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natiq\Documents\INSPER\2° SEMESTRE\Ciência dos Dados\PROJETO 1\Projeto1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A28F09-9357-4BD5-A523-075573A71A18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C9DBC3-4346-4D28-B782-FED1C9D75D00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="873">
   <si>
     <t>Treinamento</t>
   </si>
@@ -3109,12 +3109,6 @@
     <t>RELEVANCIA</t>
   </si>
   <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>vontade de comer uma coxinha de frango com catupiry</t>
   </si>
   <si>
@@ -3239,18 +3233,6 @@
   </si>
   <si>
     <t>minha mãe ontem pedindo pizza de catupiry kkkkkkkkkkkkkkkkkkkkkkk igual vei https://t.co/7cmvnj8zox</t>
-  </si>
-  <si>
-    <t>0: irrelevante</t>
-  </si>
-  <si>
-    <t>1: neutro</t>
-  </si>
-  <si>
-    <t>2: relevante</t>
-  </si>
-  <si>
-    <t>3: muito relevante</t>
   </si>
 </sst>
 </file>
@@ -3282,7 +3264,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3292,12 +3274,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3344,7 +3320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3353,12 +3329,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -3698,72 +3672,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G669"/>
+  <dimension ref="A1:B669"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="255.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>3</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -3771,7 +3732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -3779,7 +3740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -3787,7 +3748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -3795,7 +3756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -3803,7 +3764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -3811,7 +3772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -3819,7 +3780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -3827,7 +3788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -3835,7 +3796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -3843,7 +3804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -7179,7 +7140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" s="3" t="s">
         <v>434</v>
       </c>
@@ -7187,7 +7148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" s="3" t="s">
         <v>435</v>
       </c>
@@ -7195,7 +7156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" s="3" t="s">
         <v>436</v>
       </c>
@@ -7203,7 +7164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" s="3" t="s">
         <v>437</v>
       </c>
@@ -7211,7 +7172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" s="3" t="s">
         <v>438</v>
       </c>
@@ -7219,7 +7180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" s="3" t="s">
         <v>439</v>
       </c>
@@ -7227,7 +7188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" s="3" t="s">
         <v>440</v>
       </c>
@@ -7235,7 +7196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" s="3" t="s">
         <v>441</v>
       </c>
@@ -7243,7 +7204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" s="3" t="s">
         <v>442</v>
       </c>
@@ -7251,18 +7212,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" s="3" t="s">
         <v>443</v>
       </c>
       <c r="B442" s="3">
         <v>2</v>
       </c>
-      <c r="C442" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" s="3" t="s">
         <v>444</v>
       </c>
@@ -7270,18 +7228,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" s="3" t="s">
         <v>445</v>
       </c>
       <c r="B444" s="3">
         <v>3</v>
       </c>
-      <c r="C444" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" s="3" t="s">
         <v>446</v>
       </c>
@@ -7289,7 +7244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" s="3" t="s">
         <v>447</v>
       </c>
@@ -7297,7 +7252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" s="3" t="s">
         <v>448</v>
       </c>
@@ -7305,7 +7260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" s="3" t="s">
         <v>449</v>
       </c>
@@ -7313,18 +7268,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" s="3" t="s">
         <v>450</v>
       </c>
       <c r="B449" s="3">
         <v>3</v>
       </c>
-      <c r="C449" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" s="3" t="s">
         <v>451</v>
       </c>
@@ -7332,18 +7284,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" s="3" t="s">
         <v>452</v>
       </c>
       <c r="B451" s="3">
         <v>2</v>
       </c>
-      <c r="C451" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" s="3" t="s">
         <v>453</v>
       </c>
@@ -7351,7 +7300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" s="3" t="s">
         <v>454</v>
       </c>
@@ -7359,7 +7308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" s="3" t="s">
         <v>455</v>
       </c>
@@ -7367,7 +7316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" s="3" t="s">
         <v>456</v>
       </c>
@@ -7375,7 +7324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" s="3" t="s">
         <v>457</v>
       </c>
@@ -7383,7 +7332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" s="3" t="s">
         <v>458</v>
       </c>
@@ -7391,18 +7340,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" s="3" t="s">
         <v>459</v>
       </c>
       <c r="B458" s="3">
         <v>2</v>
       </c>
-      <c r="C458" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" s="3" t="s">
         <v>460</v>
       </c>
@@ -7410,7 +7356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" s="3" t="s">
         <v>461</v>
       </c>
@@ -7418,7 +7364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" s="3" t="s">
         <v>462</v>
       </c>
@@ -7426,18 +7372,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" s="3" t="s">
         <v>463</v>
       </c>
       <c r="B462" s="3">
         <v>2</v>
       </c>
-      <c r="C462" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" s="3" t="s">
         <v>464</v>
       </c>
@@ -7445,7 +7388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" s="3" t="s">
         <v>465</v>
       </c>
@@ -7581,7 +7524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" s="3" t="s">
         <v>483</v>
       </c>
@@ -7589,40 +7532,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" s="3" t="s">
         <v>484</v>
       </c>
       <c r="B482" s="3">
         <v>3</v>
       </c>
-      <c r="C482" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" s="3" t="s">
         <v>485</v>
       </c>
       <c r="B483" s="3">
         <v>3</v>
       </c>
-      <c r="C483" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" s="3" t="s">
         <v>486</v>
       </c>
       <c r="B484" s="3">
         <v>2</v>
       </c>
-      <c r="C484" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" s="3" t="s">
         <v>487</v>
       </c>
@@ -7630,7 +7564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" s="3" t="s">
         <v>488</v>
       </c>
@@ -7638,7 +7572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" s="3" t="s">
         <v>489</v>
       </c>
@@ -7646,7 +7580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" s="3" t="s">
         <v>490</v>
       </c>
@@ -7654,7 +7588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" s="3" t="s">
         <v>491</v>
       </c>
@@ -7662,7 +7596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" s="3" t="s">
         <v>492</v>
       </c>
@@ -7670,7 +7604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" s="3" t="s">
         <v>493</v>
       </c>
@@ -7678,18 +7612,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" s="3" t="s">
         <v>494</v>
       </c>
       <c r="B492" s="3">
         <v>2</v>
       </c>
-      <c r="C492" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" s="3" t="s">
         <v>495</v>
       </c>
@@ -7697,7 +7628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" s="3" t="s">
         <v>496</v>
       </c>
@@ -7705,18 +7636,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" s="3" t="s">
         <v>497</v>
       </c>
       <c r="B495" s="3">
         <v>3</v>
       </c>
-      <c r="C495" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" s="3" t="s">
         <v>498</v>
       </c>
@@ -7724,7 +7652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" s="3" t="s">
         <v>499</v>
       </c>
@@ -7732,7 +7660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" s="3" t="s">
         <v>500</v>
       </c>
@@ -7740,7 +7668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" s="3" t="s">
         <v>501</v>
       </c>
@@ -7748,7 +7676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" s="3" t="s">
         <v>502</v>
       </c>
@@ -7756,7 +7684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" s="3" t="s">
         <v>503</v>
       </c>
@@ -7764,7 +7692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" s="3" t="s">
         <v>504</v>
       </c>
@@ -7772,7 +7700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" s="3" t="s">
         <v>505</v>
       </c>
@@ -7780,18 +7708,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" s="3" t="s">
         <v>506</v>
       </c>
       <c r="B504" s="3">
         <v>2</v>
       </c>
-      <c r="C504" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" s="3" t="s">
         <v>507</v>
       </c>
@@ -7799,7 +7724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" s="3" t="s">
         <v>508</v>
       </c>
@@ -7807,7 +7732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" s="3" t="s">
         <v>509</v>
       </c>
@@ -7815,7 +7740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" s="3" t="s">
         <v>510</v>
       </c>
@@ -7823,7 +7748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" s="3" t="s">
         <v>511</v>
       </c>
@@ -7831,7 +7756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" s="3" t="s">
         <v>512</v>
       </c>
@@ -7839,7 +7764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" s="3" t="s">
         <v>513</v>
       </c>
@@ -7847,7 +7772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" s="3" t="s">
         <v>514</v>
       </c>
@@ -7983,7 +7908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529" s="3" t="s">
         <v>531</v>
       </c>
@@ -7991,7 +7916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530" s="3" t="s">
         <v>532</v>
       </c>
@@ -7999,7 +7924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531" s="3" t="s">
         <v>533</v>
       </c>
@@ -8007,7 +7932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532" s="3" t="s">
         <v>534</v>
       </c>
@@ -8015,7 +7940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533" s="3" t="s">
         <v>535</v>
       </c>
@@ -8023,7 +7948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534" s="3" t="s">
         <v>536</v>
       </c>
@@ -8031,7 +7956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535" s="3" t="s">
         <v>537</v>
       </c>
@@ -8039,7 +7964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536" s="3" t="s">
         <v>538</v>
       </c>
@@ -8047,7 +7972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537" s="3" t="s">
         <v>539</v>
       </c>
@@ -8055,7 +7980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A538" s="3" t="s">
         <v>540</v>
       </c>
@@ -8063,7 +7988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A539" s="3" t="s">
         <v>541</v>
       </c>
@@ -8071,18 +7996,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A540" s="3" t="s">
         <v>542</v>
       </c>
       <c r="B540" s="3">
         <v>2</v>
       </c>
-      <c r="C540" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A541" s="3" t="s">
         <v>543</v>
       </c>
@@ -8090,7 +8012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542" s="3" t="s">
         <v>544</v>
       </c>
@@ -8098,7 +8020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A543" s="3" t="s">
         <v>545</v>
       </c>
@@ -8106,7 +8028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A544" s="3" t="s">
         <v>546</v>
       </c>
@@ -8660,7 +8582,7 @@
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A613" s="3" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B613" s="3">
         <v>2</v>
@@ -8748,7 +8670,7 @@
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A624" s="3" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B624" s="3">
         <v>2</v>
@@ -8764,7 +8686,7 @@
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A626" s="3" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B626" s="3">
         <v>0</v>
@@ -8812,7 +8734,7 @@
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A632" s="3" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B632" s="3">
         <v>0</v>
@@ -8876,7 +8798,7 @@
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A640" s="3" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B640" s="3">
         <v>3</v>
@@ -8884,7 +8806,7 @@
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A641" s="3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B641" s="3">
         <v>1</v>
@@ -8900,7 +8822,7 @@
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A643" s="3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B643" s="3">
         <v>2</v>
@@ -8924,7 +8846,7 @@
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A646" s="3" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B646" s="3">
         <v>3</v>
@@ -9004,7 +8926,7 @@
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A656" s="3" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B656" s="3">
         <v>0</v>
@@ -9060,7 +8982,7 @@
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A663" s="3" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B663" s="3">
         <v>0</v>
@@ -9122,20 +9044,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I336"/>
+  <dimension ref="A1:D336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="255.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>727</v>
       </c>
@@ -9143,60 +9064,48 @@
         <v>839</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>728</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>729</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>730</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>731</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>732</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
       </c>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>733</v>
       </c>
@@ -9204,7 +9113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>734</v>
       </c>
@@ -9212,7 +9121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>735</v>
       </c>
@@ -9220,7 +9129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>736</v>
       </c>
@@ -9228,7 +9137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>737</v>
       </c>
@@ -9236,7 +9145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>738</v>
       </c>
@@ -9244,7 +9153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>739</v>
       </c>
@@ -9252,7 +9161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>740</v>
       </c>
@@ -9260,7 +9169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>741</v>
       </c>
@@ -9268,7 +9177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>742</v>
       </c>
@@ -10908,11 +10817,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="6" t="s">
-        <v>852</v>
-      </c>
-      <c r="B221" s="6">
+    <row r="221" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="B221" s="3">
         <v>2</v>
       </c>
     </row>
@@ -10942,7 +10851,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B225" s="3">
         <v>3</v>
@@ -10966,7 +10875,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B228" s="3">
         <v>1</v>
@@ -11014,7 +10923,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B234" s="3">
         <v>2</v>
@@ -11030,7 +10939,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B236" s="3">
         <v>3</v>
@@ -11070,7 +10979,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B241" s="3">
         <v>3</v>
@@ -11110,7 +11019,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B246" s="3">
         <v>3</v>
@@ -11134,7 +11043,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B249" s="3">
         <v>1</v>
@@ -11142,7 +11051,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B250" s="3">
         <v>3</v>
@@ -11158,7 +11067,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B252" s="3">
         <v>0</v>
@@ -11174,7 +11083,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B254" s="3">
         <v>3</v>
@@ -11246,7 +11155,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B263" s="3">
         <v>1</v>
@@ -11430,7 +11339,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B286" s="3">
         <v>2</v>
@@ -11470,7 +11379,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B291" s="3">
         <v>1</v>
@@ -11478,7 +11387,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B292" s="3">
         <v>3</v>
@@ -11502,7 +11411,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B295" s="3">
         <v>0</v>
@@ -11566,7 +11475,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B303" s="3">
         <v>3</v>
@@ -11598,7 +11507,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B307" s="3">
         <v>1</v>
@@ -11638,7 +11547,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B312" s="3">
         <v>0</v>
@@ -11670,7 +11579,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B316" s="3">
         <v>3</v>
@@ -11718,7 +11627,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B322" s="3">
         <v>0</v>
@@ -11742,7 +11651,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B325" s="3">
         <v>3</v>
@@ -11758,7 +11667,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B327" s="3">
         <v>1</v>
@@ -11806,7 +11715,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B333" s="3">
         <v>0</v>
@@ -11852,12 +11761,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010004A9DFCD68768843B772937BA4D9E448" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="46425e115ba7e99edf2604e1eacb9dff">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6a7e632-1e49-430b-b1e0-197917d309ea" xmlns:ns4="56bcf414-d7d9-423c-970c-c63c17a3ff38" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="900f42d01f1ca867cd18d0b1f83ffb05" ns3:_="" ns4:_="">
     <xsd:import namespace="f6a7e632-1e49-430b-b1e0-197917d309ea"/>
@@ -12068,6 +11971,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63C5915E-1106-4260-BC20-7D088B5C259B}">
   <ds:schemaRefs>
@@ -12077,23 +11986,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E12A45E7-CFB4-424B-96A6-AB830DA7C328}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="56bcf414-d7d9-423c-970c-c63c17a3ff38"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f6a7e632-1e49-430b-b1e0-197917d309ea"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36D382AA-1077-4701-BC0B-A5E5B6585F4F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12110,4 +12002,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E12A45E7-CFB4-424B-96A6-AB830DA7C328}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="56bcf414-d7d9-423c-970c-c63c17a3ff38"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f6a7e632-1e49-430b-b1e0-197917d309ea"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/catupiry.xlsx
+++ b/catupiry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natiq\Documents\INSPER\2° SEMESTRE\Ciência dos Dados\PROJETO 1\Projeto1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C9DBC3-4346-4D28-B782-FED1C9D75D00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09A5AA8-CA58-4500-8E01-4ADBC5008BDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="874">
   <si>
     <t>Treinamento</t>
   </si>
@@ -3233,6 +3233,9 @@
   </si>
   <si>
     <t>minha mãe ontem pedindo pizza de catupiry kkkkkkkkkkkkkkkkkkkkkkk igual vei https://t.co/7cmvnj8zox</t>
+  </si>
+  <si>
+    <t>viciei em hambúrguer com catupiry rota, por que tão perfeito?</t>
   </si>
 </sst>
 </file>
@@ -3320,7 +3323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3334,6 +3337,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3674,8 +3680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B669"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3693,8 +3699,8 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
+      <c r="A2" s="9" t="s">
+        <v>873</v>
       </c>
       <c r="B2" s="3">
         <v>3</v>
